--- a/Packets.xlsx
+++ b/Packets.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Juli\Desktop\src\Adventure\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E2029AC4-D603-4C92-9519-A36730A72AB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2F194D4-965D-4B69-B98B-9DACDC6CDB03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11385" xr2:uid="{5BF5C41C-DB2C-4A40-8A23-C3519868B200}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5BF5C41C-DB2C-4A40-8A23-C3519868B200}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,18 +34,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>16 03 01 00 D2 01 00 00 CE 03 01 FB 4C 5F 14 FA 00 89 62 D3 E2 A9 39 48 33 D3 D2 D1 4B B9 2B B1 EF 4C 9C EB A3 62 2A BC 1C 24 BD 00 00 5C C0 14 C0</t>
-  </si>
-  <si>
-    <t>16 03 01 00 D2 01 00 00 CE 03 01 82 97 41 C9 4F 9D 1A 44 EA E8 3C 14 9C A6 DF 9E CE 26 95 20 93 3D 9E 4C 3D A6 D0 0D EE DD AD E4 00 00 5C C0 14 C0 0A</t>
-  </si>
-  <si>
-    <t>16 03 01 00 D2 01 00 00 CE 03 01 8D D9 E7 A3 79 C3 63 FB 8A D5 2B B2 70 B5 61 29 26 B4 CC 2B 66 BA A4 94 C1 98 C3 1D 42 D9 00 B4 00 00 5C C0 14 C0 0A</t>
-  </si>
-  <si>
-    <t>16 03 01 00 D2 01 00 00 CE 03 01 A9 A2 6F A7 3D A3 F4 21 6E FB 65 3E 71 D0 9D 4F 97 DB 7B BD D5 A4 6E 38 AF 4A 6B 23 96 4F 0C 80 00 00 5C C0 14 C0 0A</t>
+    <t>ClientHello</t>
   </si>
 </sst>
 </file>
@@ -397,34 +388,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D608EEA0-9B9D-4EAF-BBF8-CFDA5E085D7A}">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Packets.xlsx
+++ b/Packets.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Juli\Desktop\src\Adventure\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2F194D4-965D-4B69-B98B-9DACDC6CDB03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9785CD0B-9B82-4859-B205-B18A39C9152E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5BF5C41C-DB2C-4A40-8A23-C3519868B200}"/>
+    <workbookView xWindow="-24030" yWindow="0" windowWidth="21600" windowHeight="11385" xr2:uid="{5BF5C41C-DB2C-4A40-8A23-C3519868B200}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,17 +34,82 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
   <si>
     <t>ClientHello</t>
+  </si>
+  <si>
+    <t>Game</t>
+  </si>
+  <si>
+    <t>Client</t>
+  </si>
+  <si>
+    <t>Server</t>
+  </si>
+  <si>
+    <t>52 48</t>
+  </si>
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Ok</t>
+  </si>
+  <si>
+    <t>6D 76</t>
+  </si>
+  <si>
+    <t>Position</t>
+  </si>
+  <si>
+    <t>6A 70</t>
+  </si>
+  <si>
+    <t>Jump</t>
+  </si>
+  <si>
+    <t>2A 69</t>
+  </si>
+  <si>
+    <t>Fireball</t>
+  </si>
+  <si>
+    <t>73 3D</t>
+  </si>
+  <si>
+    <t>SetHand</t>
+  </si>
+  <si>
+    <t>0F</t>
+  </si>
+  <si>
+    <t>DC AB</t>
+  </si>
+  <si>
+    <t>SetHandAck1</t>
+  </si>
+  <si>
+    <t>SetHandAck2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -72,8 +137,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -388,23 +454,104 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D608EEA0-9B9D-4EAF-BBF8-CFDA5E085D7A}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.5703125" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>